--- a/Plantilla/plantillaDolar-Olivar.xlsx
+++ b/Plantilla/plantillaDolar-Olivar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthoni\Documents\GitHub\Tabla-de-Amortizacion\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Documents\GitHub\Tabla-de-Amortizacion\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B0F55-D3D2-4057-8E2F-F1C8632E175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61163240-28D2-4D32-8D0D-0C916858E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BBF39F95-F655-4258-86B2-AB10BC559A4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BBF39F95-F655-4258-86B2-AB10BC559A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGO-CUOTAS" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>INICAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>IMPORTE</t>
   </si>
@@ -36,33 +33,18 @@
     <t>CUOTAS</t>
   </si>
   <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
-    <t>COUTA</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
-  </si>
-  <si>
     <t>SALDO</t>
   </si>
   <si>
     <t>PRIMER PAGO</t>
   </si>
   <si>
-    <t>ULTIMO PAGO</t>
-  </si>
-  <si>
     <t>MONEDA</t>
   </si>
   <si>
-    <t>DOLAR $</t>
-  </si>
-  <si>
     <t>TABLA DE AMORTIZACIÓN</t>
   </si>
   <si>
@@ -76,6 +58,27 @@
   </si>
   <si>
     <t>SALDO PENDIENTE</t>
+  </si>
+  <si>
+    <t>NÚMERO</t>
+  </si>
+  <si>
+    <t>CUOTA</t>
+  </si>
+  <si>
+    <t>DÓLAR $</t>
+  </si>
+  <si>
+    <t>INICIAL</t>
+  </si>
+  <si>
+    <t>ÚLTIMO PAGO</t>
+  </si>
+  <si>
+    <t>COD-LETRA</t>
+  </si>
+  <si>
+    <t>LOTE</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -261,37 +264,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -307,25 +284,24 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,652 +674,654 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="10" max="14" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="14.7265625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="10" max="14" width="11.453125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="G10" s="5"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13"/>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16"/>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="2">
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
